--- a/InputFiles/Example6.xlsx
+++ b/InputFiles/Example6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\strucpy\Examples\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3CED9C-937D-4BB2-88B9-0DA6C401B9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F59F51D-7ABC-4933-B1D8-1F80E7786FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="657" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +249,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,18 +349,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,42 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -423,17 +377,65 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,3165 +750,3165 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="17" style="27" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="12.28515625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="15">
         <v>4</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="15">
         <v>5</v>
       </c>
-      <c r="D2" s="20">
-        <v>500</v>
-      </c>
-      <c r="E2" s="20">
-        <v>500</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0</v>
-      </c>
-      <c r="G2" s="22">
-        <v>0</v>
-      </c>
-      <c r="H2" s="21">
+      <c r="D2" s="16">
+        <v>500</v>
+      </c>
+      <c r="E2" s="16">
+        <v>500</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <v>5</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="15">
         <v>6</v>
       </c>
-      <c r="D3" s="20">
-        <v>500</v>
-      </c>
-      <c r="E3" s="20">
-        <v>500</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="D3" s="16">
+        <v>500</v>
+      </c>
+      <c r="E3" s="16">
+        <v>500</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>7</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>8</v>
       </c>
-      <c r="D4" s="20">
-        <v>500</v>
-      </c>
-      <c r="E4" s="20">
-        <v>500</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="D4" s="16">
+        <v>500</v>
+      </c>
+      <c r="E4" s="16">
+        <v>500</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>8</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>9</v>
       </c>
-      <c r="D5" s="20">
-        <v>500</v>
-      </c>
-      <c r="E5" s="20">
-        <v>500</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="D5" s="16">
+        <v>500</v>
+      </c>
+      <c r="E5" s="16">
+        <v>500</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>10</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>11</v>
       </c>
-      <c r="D6" s="20">
-        <v>500</v>
-      </c>
-      <c r="E6" s="20">
-        <v>500</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="D6" s="16">
+        <v>500</v>
+      </c>
+      <c r="E6" s="16">
+        <v>500</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>11</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>12</v>
       </c>
-      <c r="D7" s="20">
-        <v>500</v>
-      </c>
-      <c r="E7" s="20">
-        <v>500</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="D7" s="16">
+        <v>500</v>
+      </c>
+      <c r="E7" s="16">
+        <v>500</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>8</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>14</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>15</v>
       </c>
-      <c r="D8" s="20">
-        <v>500</v>
-      </c>
-      <c r="E8" s="20">
-        <v>500</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="D8" s="16">
+        <v>500</v>
+      </c>
+      <c r="E8" s="16">
+        <v>500</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>10</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>17</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>18</v>
       </c>
-      <c r="D9" s="20">
-        <v>500</v>
-      </c>
-      <c r="E9" s="20">
-        <v>500</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="D9" s="16">
+        <v>500</v>
+      </c>
+      <c r="E9" s="16">
+        <v>500</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>11</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
-        <v>500</v>
-      </c>
-      <c r="E10" s="20">
-        <v>500</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="D10" s="16">
+        <v>500</v>
+      </c>
+      <c r="E10" s="16">
+        <v>500</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>12</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <v>5</v>
       </c>
-      <c r="D11" s="20">
-        <v>500</v>
-      </c>
-      <c r="E11" s="20">
-        <v>500</v>
-      </c>
-      <c r="F11" s="22">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="D11" s="16">
+        <v>500</v>
+      </c>
+      <c r="E11" s="16">
+        <v>500</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>13</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>3</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>6</v>
       </c>
-      <c r="D12" s="20">
-        <v>500</v>
-      </c>
-      <c r="E12" s="20">
-        <v>500</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="D12" s="16">
+        <v>500</v>
+      </c>
+      <c r="E12" s="16">
+        <v>500</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>14</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>4</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>7</v>
       </c>
-      <c r="D13" s="20">
-        <v>500</v>
-      </c>
-      <c r="E13" s="20">
-        <v>500</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="D13" s="16">
+        <v>500</v>
+      </c>
+      <c r="E13" s="16">
+        <v>500</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>15</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="15">
         <v>8</v>
       </c>
-      <c r="D14" s="20">
-        <v>500</v>
-      </c>
-      <c r="E14" s="20">
-        <v>500</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="D14" s="16">
+        <v>500</v>
+      </c>
+      <c r="E14" s="16">
+        <v>500</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>16</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <v>6</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="15">
         <v>9</v>
       </c>
-      <c r="D15" s="20">
-        <v>500</v>
-      </c>
-      <c r="E15" s="20">
-        <v>500</v>
-      </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="D15" s="16">
+        <v>500</v>
+      </c>
+      <c r="E15" s="16">
+        <v>500</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>17</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>7</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <v>10</v>
       </c>
-      <c r="D16" s="20">
-        <v>500</v>
-      </c>
-      <c r="E16" s="20">
-        <v>500</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="D16" s="16">
+        <v>500</v>
+      </c>
+      <c r="E16" s="16">
+        <v>500</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="15">
         <v>18</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <v>8</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="15">
         <v>11</v>
       </c>
-      <c r="D17" s="20">
-        <v>500</v>
-      </c>
-      <c r="E17" s="20">
-        <v>500</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="D17" s="16">
+        <v>500</v>
+      </c>
+      <c r="E17" s="16">
+        <v>500</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>19</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <v>9</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="15">
         <v>12</v>
       </c>
-      <c r="D18" s="20">
-        <v>500</v>
-      </c>
-      <c r="E18" s="20">
-        <v>500</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="D18" s="16">
+        <v>500</v>
+      </c>
+      <c r="E18" s="16">
+        <v>500</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="15">
         <v>21</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="15">
         <v>11</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="15">
         <v>14</v>
       </c>
-      <c r="D19" s="20">
-        <v>500</v>
-      </c>
-      <c r="E19" s="20">
-        <v>500</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
+      <c r="D19" s="16">
+        <v>500</v>
+      </c>
+      <c r="E19" s="16">
+        <v>500</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>22</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <v>12</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="15">
         <v>15</v>
       </c>
-      <c r="D20" s="20">
-        <v>500</v>
-      </c>
-      <c r="E20" s="20">
-        <v>500</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="D20" s="16">
+        <v>500</v>
+      </c>
+      <c r="E20" s="16">
+        <v>500</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="15">
         <v>24</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="15">
         <v>14</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="15">
         <v>17</v>
       </c>
-      <c r="D21" s="20">
-        <v>500</v>
-      </c>
-      <c r="E21" s="20">
-        <v>500</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22">
+      <c r="D21" s="16">
+        <v>500</v>
+      </c>
+      <c r="E21" s="16">
+        <v>500</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>25</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="15">
         <v>15</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="15">
         <v>18</v>
       </c>
-      <c r="D22" s="20">
-        <v>500</v>
-      </c>
-      <c r="E22" s="20">
-        <v>500</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="D22" s="16">
+        <v>500</v>
+      </c>
+      <c r="E22" s="16">
+        <v>500</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="15">
         <v>26</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="15">
         <v>22</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="15">
         <v>23</v>
       </c>
-      <c r="D23" s="20">
-        <v>500</v>
-      </c>
-      <c r="E23" s="20">
-        <v>500</v>
-      </c>
-      <c r="F23" s="22">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22">
+      <c r="D23" s="16">
+        <v>500</v>
+      </c>
+      <c r="E23" s="16">
+        <v>500</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>27</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="15">
         <v>23</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="15">
         <v>24</v>
       </c>
-      <c r="D24" s="20">
-        <v>500</v>
-      </c>
-      <c r="E24" s="20">
-        <v>500</v>
-      </c>
-      <c r="F24" s="22">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
+      <c r="D24" s="16">
+        <v>500</v>
+      </c>
+      <c r="E24" s="16">
+        <v>500</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="15">
         <v>28</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="15">
         <v>25</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="15">
         <v>26</v>
       </c>
-      <c r="D25" s="20">
-        <v>500</v>
-      </c>
-      <c r="E25" s="20">
-        <v>500</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
+      <c r="D25" s="16">
+        <v>500</v>
+      </c>
+      <c r="E25" s="16">
+        <v>500</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>29</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="15">
         <v>26</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="15">
         <v>27</v>
       </c>
-      <c r="D26" s="20">
-        <v>500</v>
-      </c>
-      <c r="E26" s="20">
-        <v>500</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="D26" s="16">
+        <v>500</v>
+      </c>
+      <c r="E26" s="16">
+        <v>500</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="15">
         <v>30</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="15">
         <v>28</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="15">
         <v>29</v>
       </c>
-      <c r="D27" s="20">
-        <v>500</v>
-      </c>
-      <c r="E27" s="20">
-        <v>500</v>
-      </c>
-      <c r="F27" s="22">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="D27" s="16">
+        <v>500</v>
+      </c>
+      <c r="E27" s="16">
+        <v>500</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>31</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="15">
         <v>29</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="15">
         <v>30</v>
       </c>
-      <c r="D28" s="20">
-        <v>500</v>
-      </c>
-      <c r="E28" s="20">
-        <v>500</v>
-      </c>
-      <c r="F28" s="22">
-        <v>0</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
+      <c r="D28" s="16">
+        <v>500</v>
+      </c>
+      <c r="E28" s="16">
+        <v>500</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="15">
         <v>33</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="15">
         <v>32</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="15">
         <v>33</v>
       </c>
-      <c r="D29" s="20">
-        <v>500</v>
-      </c>
-      <c r="E29" s="20">
-        <v>500</v>
-      </c>
-      <c r="F29" s="22">
-        <v>0</v>
-      </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="D29" s="16">
+        <v>500</v>
+      </c>
+      <c r="E29" s="16">
+        <v>500</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>35</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="15">
         <v>35</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="15">
         <v>36</v>
       </c>
-      <c r="D30" s="20">
-        <v>500</v>
-      </c>
-      <c r="E30" s="20">
-        <v>500</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
+      <c r="D30" s="16">
+        <v>500</v>
+      </c>
+      <c r="E30" s="16">
+        <v>500</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="15">
         <v>36</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="15">
         <v>19</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="15">
         <v>22</v>
       </c>
-      <c r="D31" s="20">
-        <v>500</v>
-      </c>
-      <c r="E31" s="20">
-        <v>500</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0</v>
-      </c>
-      <c r="H31" s="22">
+      <c r="D31" s="16">
+        <v>500</v>
+      </c>
+      <c r="E31" s="16">
+        <v>500</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="15">
         <v>37</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="15">
         <v>20</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="15">
         <v>23</v>
       </c>
-      <c r="D32" s="20">
-        <v>500</v>
-      </c>
-      <c r="E32" s="20">
-        <v>500</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="D32" s="16">
+        <v>500</v>
+      </c>
+      <c r="E32" s="16">
+        <v>500</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="15">
         <v>38</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="15">
         <v>21</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="15">
         <v>24</v>
       </c>
-      <c r="D33" s="20">
-        <v>500</v>
-      </c>
-      <c r="E33" s="20">
-        <v>500</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
+      <c r="D33" s="16">
+        <v>500</v>
+      </c>
+      <c r="E33" s="16">
+        <v>500</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="15">
         <v>39</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="15">
         <v>22</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="15">
         <v>25</v>
       </c>
-      <c r="D34" s="20">
-        <v>500</v>
-      </c>
-      <c r="E34" s="20">
-        <v>500</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
+      <c r="D34" s="16">
+        <v>500</v>
+      </c>
+      <c r="E34" s="16">
+        <v>500</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="15">
         <v>40</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="15">
         <v>23</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="15">
         <v>26</v>
       </c>
-      <c r="D35" s="20">
-        <v>500</v>
-      </c>
-      <c r="E35" s="20">
-        <v>500</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
-        <v>0</v>
-      </c>
-      <c r="H35" s="22">
+      <c r="D35" s="16">
+        <v>500</v>
+      </c>
+      <c r="E35" s="16">
+        <v>500</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="15">
         <v>41</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="15">
         <v>24</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="15">
         <v>27</v>
       </c>
-      <c r="D36" s="20">
-        <v>500</v>
-      </c>
-      <c r="E36" s="20">
-        <v>500</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-      <c r="G36" s="22">
-        <v>0</v>
-      </c>
-      <c r="H36" s="22">
+      <c r="D36" s="16">
+        <v>500</v>
+      </c>
+      <c r="E36" s="16">
+        <v>500</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="15">
         <v>42</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="15">
         <v>25</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="15">
         <v>28</v>
       </c>
-      <c r="D37" s="20">
-        <v>500</v>
-      </c>
-      <c r="E37" s="20">
-        <v>500</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0</v>
-      </c>
-      <c r="G37" s="22">
-        <v>0</v>
-      </c>
-      <c r="H37" s="22">
+      <c r="D37" s="16">
+        <v>500</v>
+      </c>
+      <c r="E37" s="16">
+        <v>500</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="15">
         <v>43</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="15">
         <v>26</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="15">
         <v>29</v>
       </c>
-      <c r="D38" s="20">
-        <v>500</v>
-      </c>
-      <c r="E38" s="20">
-        <v>500</v>
-      </c>
-      <c r="F38" s="22">
-        <v>0</v>
-      </c>
-      <c r="G38" s="22">
-        <v>0</v>
-      </c>
-      <c r="H38" s="22">
+      <c r="D38" s="16">
+        <v>500</v>
+      </c>
+      <c r="E38" s="16">
+        <v>500</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="15">
         <v>44</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="15">
         <v>27</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="15">
         <v>30</v>
       </c>
-      <c r="D39" s="20">
-        <v>500</v>
-      </c>
-      <c r="E39" s="20">
-        <v>500</v>
-      </c>
-      <c r="F39" s="22">
-        <v>0</v>
-      </c>
-      <c r="G39" s="22">
-        <v>0</v>
-      </c>
-      <c r="H39" s="22">
+      <c r="D39" s="16">
+        <v>500</v>
+      </c>
+      <c r="E39" s="16">
+        <v>500</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="15">
         <v>46</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="15">
         <v>29</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="15">
         <v>32</v>
       </c>
-      <c r="D40" s="20">
-        <v>500</v>
-      </c>
-      <c r="E40" s="20">
-        <v>500</v>
-      </c>
-      <c r="F40" s="22">
-        <v>0</v>
-      </c>
-      <c r="G40" s="22">
-        <v>0</v>
-      </c>
-      <c r="H40" s="22">
+      <c r="D40" s="16">
+        <v>500</v>
+      </c>
+      <c r="E40" s="16">
+        <v>500</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="15">
         <v>47</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="15">
         <v>30</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="15">
         <v>33</v>
       </c>
-      <c r="D41" s="20">
-        <v>500</v>
-      </c>
-      <c r="E41" s="20">
-        <v>500</v>
-      </c>
-      <c r="F41" s="22">
-        <v>0</v>
-      </c>
-      <c r="G41" s="22">
-        <v>0</v>
-      </c>
-      <c r="H41" s="22">
+      <c r="D41" s="16">
+        <v>500</v>
+      </c>
+      <c r="E41" s="16">
+        <v>500</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="15">
         <v>49</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="15">
         <v>32</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="15">
         <v>35</v>
       </c>
-      <c r="D42" s="20">
-        <v>500</v>
-      </c>
-      <c r="E42" s="20">
-        <v>500</v>
-      </c>
-      <c r="F42" s="22">
-        <v>0</v>
-      </c>
-      <c r="G42" s="22">
-        <v>0</v>
-      </c>
-      <c r="H42" s="22">
+      <c r="D42" s="16">
+        <v>500</v>
+      </c>
+      <c r="E42" s="16">
+        <v>500</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="15">
         <v>50</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="15">
         <v>33</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="15">
         <v>36</v>
       </c>
-      <c r="D43" s="20">
-        <v>500</v>
-      </c>
-      <c r="E43" s="20">
-        <v>500</v>
-      </c>
-      <c r="F43" s="22">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="22">
+      <c r="D43" s="16">
+        <v>500</v>
+      </c>
+      <c r="E43" s="16">
+        <v>500</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="15">
         <v>51</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="15">
         <v>40</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="15">
         <v>41</v>
       </c>
-      <c r="D44" s="20">
-        <v>500</v>
-      </c>
-      <c r="E44" s="20">
-        <v>500</v>
-      </c>
-      <c r="F44" s="22">
-        <v>0</v>
-      </c>
-      <c r="G44" s="22">
-        <v>0</v>
-      </c>
-      <c r="H44" s="22">
+      <c r="D44" s="16">
+        <v>500</v>
+      </c>
+      <c r="E44" s="16">
+        <v>500</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="15">
         <v>52</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="15">
         <v>41</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="15">
         <v>42</v>
       </c>
-      <c r="D45" s="20">
-        <v>500</v>
-      </c>
-      <c r="E45" s="20">
-        <v>500</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-      <c r="G45" s="22">
-        <v>0</v>
-      </c>
-      <c r="H45" s="22">
+      <c r="D45" s="16">
+        <v>500</v>
+      </c>
+      <c r="E45" s="16">
+        <v>500</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="A46" s="15">
         <v>53</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="15">
         <v>43</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="15">
         <v>44</v>
       </c>
-      <c r="D46" s="20">
-        <v>500</v>
-      </c>
-      <c r="E46" s="20">
-        <v>500</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0</v>
-      </c>
-      <c r="G46" s="22">
-        <v>0</v>
-      </c>
-      <c r="H46" s="22">
+      <c r="D46" s="16">
+        <v>500</v>
+      </c>
+      <c r="E46" s="16">
+        <v>500</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="15">
         <v>54</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="15">
         <v>44</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="15">
         <v>45</v>
       </c>
-      <c r="D47" s="20">
-        <v>500</v>
-      </c>
-      <c r="E47" s="20">
-        <v>500</v>
-      </c>
-      <c r="F47" s="22">
-        <v>0</v>
-      </c>
-      <c r="G47" s="22">
-        <v>0</v>
-      </c>
-      <c r="H47" s="22">
+      <c r="D47" s="16">
+        <v>500</v>
+      </c>
+      <c r="E47" s="16">
+        <v>500</v>
+      </c>
+      <c r="F47" s="18">
+        <v>0</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="15">
         <v>55</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="15">
         <v>46</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="15">
         <v>47</v>
       </c>
-      <c r="D48" s="20">
-        <v>500</v>
-      </c>
-      <c r="E48" s="20">
-        <v>500</v>
-      </c>
-      <c r="F48" s="22">
-        <v>0</v>
-      </c>
-      <c r="G48" s="22">
-        <v>0</v>
-      </c>
-      <c r="H48" s="22">
+      <c r="D48" s="16">
+        <v>500</v>
+      </c>
+      <c r="E48" s="16">
+        <v>500</v>
+      </c>
+      <c r="F48" s="18">
+        <v>0</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="15">
         <v>56</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="15">
         <v>47</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="15">
         <v>48</v>
       </c>
-      <c r="D49" s="20">
-        <v>500</v>
-      </c>
-      <c r="E49" s="20">
-        <v>500</v>
-      </c>
-      <c r="F49" s="22">
-        <v>0</v>
-      </c>
-      <c r="G49" s="22">
-        <v>0</v>
-      </c>
-      <c r="H49" s="22">
+      <c r="D49" s="16">
+        <v>500</v>
+      </c>
+      <c r="E49" s="16">
+        <v>500</v>
+      </c>
+      <c r="F49" s="18">
+        <v>0</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="15">
         <v>58</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="15">
         <v>50</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="15">
         <v>51</v>
       </c>
-      <c r="D50" s="20">
-        <v>500</v>
-      </c>
-      <c r="E50" s="20">
-        <v>500</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0</v>
-      </c>
-      <c r="H50" s="22">
+      <c r="D50" s="16">
+        <v>500</v>
+      </c>
+      <c r="E50" s="16">
+        <v>500</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0</v>
+      </c>
+      <c r="G50" s="18">
+        <v>0</v>
+      </c>
+      <c r="H50" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="15">
         <v>60</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="15">
         <v>53</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="15">
         <v>54</v>
       </c>
-      <c r="D51" s="20">
-        <v>500</v>
-      </c>
-      <c r="E51" s="20">
-        <v>500</v>
-      </c>
-      <c r="F51" s="22">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22">
-        <v>0</v>
-      </c>
-      <c r="H51" s="22">
+      <c r="D51" s="16">
+        <v>500</v>
+      </c>
+      <c r="E51" s="16">
+        <v>500</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="A52" s="15">
         <v>61</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="15">
         <v>37</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="15">
         <v>40</v>
       </c>
-      <c r="D52" s="20">
-        <v>500</v>
-      </c>
-      <c r="E52" s="20">
-        <v>500</v>
-      </c>
-      <c r="F52" s="22">
-        <v>0</v>
-      </c>
-      <c r="G52" s="22">
-        <v>0</v>
-      </c>
-      <c r="H52" s="22">
+      <c r="D52" s="16">
+        <v>500</v>
+      </c>
+      <c r="E52" s="16">
+        <v>500</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0</v>
+      </c>
+      <c r="G52" s="18">
+        <v>0</v>
+      </c>
+      <c r="H52" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="15">
         <v>62</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="15">
         <v>38</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="15">
         <v>41</v>
       </c>
-      <c r="D53" s="20">
-        <v>500</v>
-      </c>
-      <c r="E53" s="20">
-        <v>500</v>
-      </c>
-      <c r="F53" s="22">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22">
-        <v>0</v>
-      </c>
-      <c r="H53" s="22">
+      <c r="D53" s="16">
+        <v>500</v>
+      </c>
+      <c r="E53" s="16">
+        <v>500</v>
+      </c>
+      <c r="F53" s="18">
+        <v>0</v>
+      </c>
+      <c r="G53" s="18">
+        <v>0</v>
+      </c>
+      <c r="H53" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
+      <c r="A54" s="19">
         <v>63</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="19">
         <v>39</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="19">
         <v>42</v>
       </c>
-      <c r="D54" s="20">
-        <v>500</v>
-      </c>
-      <c r="E54" s="20">
-        <v>500</v>
-      </c>
-      <c r="F54" s="22">
-        <v>0</v>
-      </c>
-      <c r="G54" s="22">
-        <v>0</v>
-      </c>
-      <c r="H54" s="22">
+      <c r="D54" s="16">
+        <v>500</v>
+      </c>
+      <c r="E54" s="16">
+        <v>500</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0</v>
+      </c>
+      <c r="G54" s="18">
+        <v>0</v>
+      </c>
+      <c r="H54" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
+      <c r="A55" s="19">
         <v>64</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="19">
         <v>40</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="19">
         <v>43</v>
       </c>
-      <c r="D55" s="20">
-        <v>500</v>
-      </c>
-      <c r="E55" s="20">
-        <v>500</v>
-      </c>
-      <c r="F55" s="22">
-        <v>0</v>
-      </c>
-      <c r="G55" s="22">
-        <v>0</v>
-      </c>
-      <c r="H55" s="22">
+      <c r="D55" s="16">
+        <v>500</v>
+      </c>
+      <c r="E55" s="16">
+        <v>500</v>
+      </c>
+      <c r="F55" s="18">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18">
+        <v>0</v>
+      </c>
+      <c r="H55" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
+      <c r="A56" s="19">
         <v>65</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="19">
         <v>41</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="19">
         <v>44</v>
       </c>
-      <c r="D56" s="20">
-        <v>500</v>
-      </c>
-      <c r="E56" s="20">
-        <v>500</v>
-      </c>
-      <c r="F56" s="22">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22">
-        <v>0</v>
-      </c>
-      <c r="H56" s="22">
+      <c r="D56" s="16">
+        <v>500</v>
+      </c>
+      <c r="E56" s="16">
+        <v>500</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18">
+        <v>0</v>
+      </c>
+      <c r="H56" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+      <c r="A57" s="19">
         <v>66</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="19">
         <v>42</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="19">
         <v>45</v>
       </c>
-      <c r="D57" s="20">
-        <v>500</v>
-      </c>
-      <c r="E57" s="20">
-        <v>500</v>
-      </c>
-      <c r="F57" s="22">
-        <v>0</v>
-      </c>
-      <c r="G57" s="22">
-        <v>0</v>
-      </c>
-      <c r="H57" s="22">
+      <c r="D57" s="16">
+        <v>500</v>
+      </c>
+      <c r="E57" s="16">
+        <v>500</v>
+      </c>
+      <c r="F57" s="18">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
+      <c r="A58" s="19">
         <v>67</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="19">
         <v>43</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="19">
         <v>46</v>
       </c>
-      <c r="D58" s="20">
-        <v>500</v>
-      </c>
-      <c r="E58" s="20">
-        <v>500</v>
-      </c>
-      <c r="F58" s="22">
-        <v>0</v>
-      </c>
-      <c r="G58" s="22">
-        <v>0</v>
-      </c>
-      <c r="H58" s="22">
+      <c r="D58" s="16">
+        <v>500</v>
+      </c>
+      <c r="E58" s="16">
+        <v>500</v>
+      </c>
+      <c r="F58" s="18">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0</v>
+      </c>
+      <c r="H58" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
+      <c r="A59" s="19">
         <v>68</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="19">
         <v>44</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="19">
         <v>47</v>
       </c>
-      <c r="D59" s="20">
-        <v>500</v>
-      </c>
-      <c r="E59" s="20">
-        <v>500</v>
-      </c>
-      <c r="F59" s="22">
-        <v>0</v>
-      </c>
-      <c r="G59" s="22">
-        <v>0</v>
-      </c>
-      <c r="H59" s="22">
+      <c r="D59" s="16">
+        <v>500</v>
+      </c>
+      <c r="E59" s="16">
+        <v>500</v>
+      </c>
+      <c r="F59" s="18">
+        <v>0</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0</v>
+      </c>
+      <c r="H59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="19">
         <v>69</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="19">
         <v>45</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="19">
         <v>48</v>
       </c>
-      <c r="D60" s="20">
-        <v>500</v>
-      </c>
-      <c r="E60" s="20">
-        <v>500</v>
-      </c>
-      <c r="F60" s="22">
-        <v>0</v>
-      </c>
-      <c r="G60" s="22">
-        <v>0</v>
-      </c>
-      <c r="H60" s="22">
+      <c r="D60" s="16">
+        <v>500</v>
+      </c>
+      <c r="E60" s="16">
+        <v>500</v>
+      </c>
+      <c r="F60" s="18">
+        <v>0</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+      <c r="H60" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+      <c r="A61" s="19">
         <v>71</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="19">
         <v>47</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="19">
         <v>50</v>
       </c>
-      <c r="D61" s="20">
-        <v>500</v>
-      </c>
-      <c r="E61" s="20">
-        <v>500</v>
-      </c>
-      <c r="F61" s="22">
-        <v>0</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0</v>
-      </c>
-      <c r="H61" s="22">
+      <c r="D61" s="16">
+        <v>500</v>
+      </c>
+      <c r="E61" s="16">
+        <v>500</v>
+      </c>
+      <c r="F61" s="18">
+        <v>0</v>
+      </c>
+      <c r="G61" s="18">
+        <v>0</v>
+      </c>
+      <c r="H61" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+      <c r="A62" s="19">
         <v>72</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="19">
         <v>48</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="19">
         <v>51</v>
       </c>
-      <c r="D62" s="20">
-        <v>500</v>
-      </c>
-      <c r="E62" s="20">
-        <v>500</v>
-      </c>
-      <c r="F62" s="22">
-        <v>0</v>
-      </c>
-      <c r="G62" s="22">
-        <v>0</v>
-      </c>
-      <c r="H62" s="22">
+      <c r="D62" s="16">
+        <v>500</v>
+      </c>
+      <c r="E62" s="16">
+        <v>500</v>
+      </c>
+      <c r="F62" s="18">
+        <v>0</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+      <c r="H62" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
+      <c r="A63" s="19">
         <v>74</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="19">
         <v>50</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="19">
         <v>53</v>
       </c>
-      <c r="D63" s="20">
-        <v>500</v>
-      </c>
-      <c r="E63" s="20">
-        <v>500</v>
-      </c>
-      <c r="F63" s="22">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0</v>
-      </c>
-      <c r="H63" s="22">
+      <c r="D63" s="16">
+        <v>500</v>
+      </c>
+      <c r="E63" s="16">
+        <v>500</v>
+      </c>
+      <c r="F63" s="18">
+        <v>0</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+      <c r="H63" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
+      <c r="A64" s="19">
         <v>75</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="19">
         <v>51</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="19">
         <v>54</v>
       </c>
-      <c r="D64" s="20">
-        <v>500</v>
-      </c>
-      <c r="E64" s="20">
-        <v>500</v>
-      </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-      <c r="G64" s="22">
-        <v>0</v>
-      </c>
-      <c r="H64" s="22">
+      <c r="D64" s="16">
+        <v>500</v>
+      </c>
+      <c r="E64" s="16">
+        <v>500</v>
+      </c>
+      <c r="F64" s="18">
+        <v>0</v>
+      </c>
+      <c r="G64" s="18">
+        <v>0</v>
+      </c>
+      <c r="H64" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
+      <c r="A65" s="19">
         <v>76</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="19">
         <v>58</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="19">
         <v>59</v>
       </c>
-      <c r="D65" s="20">
-        <v>500</v>
-      </c>
-      <c r="E65" s="20">
-        <v>500</v>
-      </c>
-      <c r="F65" s="27">
-        <v>0</v>
-      </c>
-      <c r="G65" s="22">
-        <v>0</v>
-      </c>
-      <c r="H65" s="22">
+      <c r="D65" s="16">
+        <v>500</v>
+      </c>
+      <c r="E65" s="16">
+        <v>500</v>
+      </c>
+      <c r="F65" s="20">
+        <v>0</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0</v>
+      </c>
+      <c r="H65" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="19">
         <v>77</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="19">
         <v>59</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="19">
         <v>60</v>
       </c>
-      <c r="D66" s="20">
-        <v>500</v>
-      </c>
-      <c r="E66" s="20">
-        <v>500</v>
-      </c>
-      <c r="F66" s="27">
-        <v>0</v>
-      </c>
-      <c r="G66" s="22">
-        <v>0</v>
-      </c>
-      <c r="H66" s="22">
+      <c r="D66" s="16">
+        <v>500</v>
+      </c>
+      <c r="E66" s="16">
+        <v>500</v>
+      </c>
+      <c r="F66" s="20">
+        <v>0</v>
+      </c>
+      <c r="G66" s="18">
+        <v>0</v>
+      </c>
+      <c r="H66" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
+      <c r="A67" s="19">
         <v>78</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="19">
         <v>61</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="19">
         <v>62</v>
       </c>
-      <c r="D67" s="20">
-        <v>500</v>
-      </c>
-      <c r="E67" s="20">
-        <v>500</v>
-      </c>
-      <c r="F67" s="27">
-        <v>0</v>
-      </c>
-      <c r="G67" s="22">
-        <v>0</v>
-      </c>
-      <c r="H67" s="22">
+      <c r="D67" s="16">
+        <v>500</v>
+      </c>
+      <c r="E67" s="16">
+        <v>500</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0</v>
+      </c>
+      <c r="H67" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
+      <c r="A68" s="19">
         <v>79</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="19">
         <v>62</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="19">
         <v>63</v>
       </c>
-      <c r="D68" s="20">
-        <v>500</v>
-      </c>
-      <c r="E68" s="20">
-        <v>500</v>
-      </c>
-      <c r="F68" s="27">
-        <v>0</v>
-      </c>
-      <c r="G68" s="22">
-        <v>0</v>
-      </c>
-      <c r="H68" s="22">
+      <c r="D68" s="16">
+        <v>500</v>
+      </c>
+      <c r="E68" s="16">
+        <v>500</v>
+      </c>
+      <c r="F68" s="20">
+        <v>0</v>
+      </c>
+      <c r="G68" s="18">
+        <v>0</v>
+      </c>
+      <c r="H68" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
+      <c r="A69" s="19">
         <v>81</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="19">
         <v>65</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="19">
         <v>66</v>
       </c>
-      <c r="D69" s="20">
-        <v>500</v>
-      </c>
-      <c r="E69" s="20">
-        <v>500</v>
-      </c>
-      <c r="F69" s="27">
-        <v>0</v>
-      </c>
-      <c r="G69" s="22">
-        <v>0</v>
-      </c>
-      <c r="H69" s="22">
+      <c r="D69" s="16">
+        <v>500</v>
+      </c>
+      <c r="E69" s="16">
+        <v>500</v>
+      </c>
+      <c r="F69" s="20">
+        <v>0</v>
+      </c>
+      <c r="G69" s="18">
+        <v>0</v>
+      </c>
+      <c r="H69" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+      <c r="A70" s="19">
         <v>83</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="19">
         <v>68</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="19">
         <v>69</v>
       </c>
-      <c r="D70" s="20">
-        <v>500</v>
-      </c>
-      <c r="E70" s="20">
-        <v>500</v>
-      </c>
-      <c r="F70" s="27">
-        <v>0</v>
-      </c>
-      <c r="G70" s="22">
-        <v>0</v>
-      </c>
-      <c r="H70" s="22">
+      <c r="D70" s="16">
+        <v>500</v>
+      </c>
+      <c r="E70" s="16">
+        <v>500</v>
+      </c>
+      <c r="F70" s="20">
+        <v>0</v>
+      </c>
+      <c r="G70" s="18">
+        <v>0</v>
+      </c>
+      <c r="H70" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+      <c r="A71" s="19">
         <v>85</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="19">
         <v>71</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="19">
         <v>72</v>
       </c>
-      <c r="D71" s="20">
-        <v>500</v>
-      </c>
-      <c r="E71" s="20">
-        <v>500</v>
-      </c>
-      <c r="F71" s="27">
-        <v>0</v>
-      </c>
-      <c r="G71" s="22">
-        <v>0</v>
-      </c>
-      <c r="H71" s="22">
+      <c r="D71" s="16">
+        <v>500</v>
+      </c>
+      <c r="E71" s="16">
+        <v>500</v>
+      </c>
+      <c r="F71" s="20">
+        <v>0</v>
+      </c>
+      <c r="G71" s="18">
+        <v>0</v>
+      </c>
+      <c r="H71" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
+      <c r="A72" s="19">
         <v>86</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="19">
         <v>55</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="19">
         <v>58</v>
       </c>
-      <c r="D72" s="20">
-        <v>500</v>
-      </c>
-      <c r="E72" s="20">
-        <v>500</v>
-      </c>
-      <c r="F72" s="27">
-        <v>0</v>
-      </c>
-      <c r="G72" s="22">
-        <v>0</v>
-      </c>
-      <c r="H72" s="22">
+      <c r="D72" s="16">
+        <v>500</v>
+      </c>
+      <c r="E72" s="16">
+        <v>500</v>
+      </c>
+      <c r="F72" s="20">
+        <v>0</v>
+      </c>
+      <c r="G72" s="18">
+        <v>0</v>
+      </c>
+      <c r="H72" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+      <c r="A73" s="19">
         <v>87</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="19">
         <v>56</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="19">
         <v>59</v>
       </c>
-      <c r="D73" s="20">
-        <v>500</v>
-      </c>
-      <c r="E73" s="20">
-        <v>500</v>
-      </c>
-      <c r="F73" s="27">
-        <v>0</v>
-      </c>
-      <c r="G73" s="22">
-        <v>0</v>
-      </c>
-      <c r="H73" s="22">
+      <c r="D73" s="16">
+        <v>500</v>
+      </c>
+      <c r="E73" s="16">
+        <v>500</v>
+      </c>
+      <c r="F73" s="20">
+        <v>0</v>
+      </c>
+      <c r="G73" s="18">
+        <v>0</v>
+      </c>
+      <c r="H73" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
+      <c r="A74" s="19">
         <v>88</v>
       </c>
-      <c r="B74" s="23">
+      <c r="B74" s="19">
         <v>57</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="19">
         <v>60</v>
       </c>
-      <c r="D74" s="20">
-        <v>500</v>
-      </c>
-      <c r="E74" s="20">
-        <v>500</v>
-      </c>
-      <c r="F74" s="27">
-        <v>0</v>
-      </c>
-      <c r="G74" s="22">
-        <v>0</v>
-      </c>
-      <c r="H74" s="22">
+      <c r="D74" s="16">
+        <v>500</v>
+      </c>
+      <c r="E74" s="16">
+        <v>500</v>
+      </c>
+      <c r="F74" s="20">
+        <v>0</v>
+      </c>
+      <c r="G74" s="18">
+        <v>0</v>
+      </c>
+      <c r="H74" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+      <c r="A75" s="19">
         <v>89</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="19">
         <v>58</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="19">
         <v>61</v>
       </c>
-      <c r="D75" s="20">
-        <v>500</v>
-      </c>
-      <c r="E75" s="20">
-        <v>500</v>
-      </c>
-      <c r="F75" s="27">
-        <v>0</v>
-      </c>
-      <c r="G75" s="22">
-        <v>0</v>
-      </c>
-      <c r="H75" s="22">
+      <c r="D75" s="16">
+        <v>500</v>
+      </c>
+      <c r="E75" s="16">
+        <v>500</v>
+      </c>
+      <c r="F75" s="20">
+        <v>0</v>
+      </c>
+      <c r="G75" s="18">
+        <v>0</v>
+      </c>
+      <c r="H75" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
+      <c r="A76" s="19">
         <v>90</v>
       </c>
-      <c r="B76" s="23">
+      <c r="B76" s="19">
         <v>59</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="19">
         <v>62</v>
       </c>
-      <c r="D76" s="20">
-        <v>500</v>
-      </c>
-      <c r="E76" s="20">
-        <v>500</v>
-      </c>
-      <c r="F76" s="27">
-        <v>0</v>
-      </c>
-      <c r="G76" s="22">
-        <v>0</v>
-      </c>
-      <c r="H76" s="22">
+      <c r="D76" s="16">
+        <v>500</v>
+      </c>
+      <c r="E76" s="16">
+        <v>500</v>
+      </c>
+      <c r="F76" s="20">
+        <v>0</v>
+      </c>
+      <c r="G76" s="18">
+        <v>0</v>
+      </c>
+      <c r="H76" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="19">
         <v>91</v>
       </c>
-      <c r="B77" s="23">
+      <c r="B77" s="19">
         <v>60</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="19">
         <v>63</v>
       </c>
-      <c r="D77" s="20">
-        <v>500</v>
-      </c>
-      <c r="E77" s="20">
-        <v>500</v>
-      </c>
-      <c r="F77" s="27">
-        <v>0</v>
-      </c>
-      <c r="G77" s="22">
-        <v>0</v>
-      </c>
-      <c r="H77" s="22">
+      <c r="D77" s="16">
+        <v>500</v>
+      </c>
+      <c r="E77" s="16">
+        <v>500</v>
+      </c>
+      <c r="F77" s="20">
+        <v>0</v>
+      </c>
+      <c r="G77" s="18">
+        <v>0</v>
+      </c>
+      <c r="H77" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
+      <c r="A78" s="19">
         <v>93</v>
       </c>
-      <c r="B78" s="23">
+      <c r="B78" s="19">
         <v>62</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="19">
         <v>65</v>
       </c>
-      <c r="D78" s="20">
-        <v>500</v>
-      </c>
-      <c r="E78" s="20">
-        <v>500</v>
-      </c>
-      <c r="F78" s="27">
-        <v>0</v>
-      </c>
-      <c r="G78" s="22">
-        <v>0</v>
-      </c>
-      <c r="H78" s="22">
+      <c r="D78" s="16">
+        <v>500</v>
+      </c>
+      <c r="E78" s="16">
+        <v>500</v>
+      </c>
+      <c r="F78" s="20">
+        <v>0</v>
+      </c>
+      <c r="G78" s="18">
+        <v>0</v>
+      </c>
+      <c r="H78" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
+      <c r="A79" s="19">
         <v>94</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="19">
         <v>63</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="19">
         <v>66</v>
       </c>
-      <c r="D79" s="20">
-        <v>500</v>
-      </c>
-      <c r="E79" s="20">
-        <v>500</v>
-      </c>
-      <c r="F79" s="27">
-        <v>0</v>
-      </c>
-      <c r="G79" s="22">
-        <v>0</v>
-      </c>
-      <c r="H79" s="22">
+      <c r="D79" s="16">
+        <v>500</v>
+      </c>
+      <c r="E79" s="16">
+        <v>500</v>
+      </c>
+      <c r="F79" s="20">
+        <v>0</v>
+      </c>
+      <c r="G79" s="18">
+        <v>0</v>
+      </c>
+      <c r="H79" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
+      <c r="A80" s="19">
         <v>96</v>
       </c>
-      <c r="B80" s="23">
+      <c r="B80" s="19">
         <v>65</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="19">
         <v>68</v>
       </c>
-      <c r="D80" s="20">
-        <v>500</v>
-      </c>
-      <c r="E80" s="20">
-        <v>500</v>
-      </c>
-      <c r="F80" s="27">
-        <v>0</v>
-      </c>
-      <c r="G80" s="22">
-        <v>0</v>
-      </c>
-      <c r="H80" s="22">
+      <c r="D80" s="16">
+        <v>500</v>
+      </c>
+      <c r="E80" s="16">
+        <v>500</v>
+      </c>
+      <c r="F80" s="20">
+        <v>0</v>
+      </c>
+      <c r="G80" s="18">
+        <v>0</v>
+      </c>
+      <c r="H80" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
+      <c r="A81" s="19">
         <v>97</v>
       </c>
-      <c r="B81" s="23">
+      <c r="B81" s="19">
         <v>66</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="19">
         <v>69</v>
       </c>
-      <c r="D81" s="20">
-        <v>500</v>
-      </c>
-      <c r="E81" s="20">
-        <v>500</v>
-      </c>
-      <c r="F81" s="27">
-        <v>0</v>
-      </c>
-      <c r="G81" s="22">
-        <v>0</v>
-      </c>
-      <c r="H81" s="22">
+      <c r="D81" s="16">
+        <v>500</v>
+      </c>
+      <c r="E81" s="16">
+        <v>500</v>
+      </c>
+      <c r="F81" s="20">
+        <v>0</v>
+      </c>
+      <c r="G81" s="18">
+        <v>0</v>
+      </c>
+      <c r="H81" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
+      <c r="A82" s="19">
         <v>99</v>
       </c>
-      <c r="B82" s="23">
+      <c r="B82" s="19">
         <v>68</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="19">
         <v>71</v>
       </c>
-      <c r="D82" s="20">
-        <v>500</v>
-      </c>
-      <c r="E82" s="20">
-        <v>500</v>
-      </c>
-      <c r="F82" s="27">
-        <v>0</v>
-      </c>
-      <c r="G82" s="22">
-        <v>0</v>
-      </c>
-      <c r="H82" s="22">
+      <c r="D82" s="16">
+        <v>500</v>
+      </c>
+      <c r="E82" s="16">
+        <v>500</v>
+      </c>
+      <c r="F82" s="20">
+        <v>0</v>
+      </c>
+      <c r="G82" s="18">
+        <v>0</v>
+      </c>
+      <c r="H82" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
+      <c r="A83" s="19">
         <v>100</v>
       </c>
-      <c r="B83" s="23">
+      <c r="B83" s="19">
         <v>69</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="19">
         <v>72</v>
       </c>
-      <c r="D83" s="20">
-        <v>500</v>
-      </c>
-      <c r="E83" s="20">
-        <v>500</v>
-      </c>
-      <c r="F83" s="27">
-        <v>0</v>
-      </c>
-      <c r="G83" s="22">
-        <v>0</v>
-      </c>
-      <c r="H83" s="22">
+      <c r="D83" s="16">
+        <v>500</v>
+      </c>
+      <c r="E83" s="16">
+        <v>500</v>
+      </c>
+      <c r="F83" s="20">
+        <v>0</v>
+      </c>
+      <c r="G83" s="18">
+        <v>0</v>
+      </c>
+      <c r="H83" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
+      <c r="A84" s="19">
         <v>101</v>
       </c>
-      <c r="B84" s="23">
+      <c r="B84" s="19">
         <v>4</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="19">
         <v>22</v>
       </c>
-      <c r="D84" s="20">
-        <v>500</v>
-      </c>
-      <c r="E84" s="20">
-        <v>500</v>
-      </c>
-      <c r="F84" s="27">
-        <v>0</v>
-      </c>
-      <c r="G84" s="22">
-        <v>0</v>
-      </c>
-      <c r="H84" s="22">
+      <c r="D84" s="16">
+        <v>500</v>
+      </c>
+      <c r="E84" s="16">
+        <v>500</v>
+      </c>
+      <c r="F84" s="20">
+        <v>0</v>
+      </c>
+      <c r="G84" s="18">
+        <v>0</v>
+      </c>
+      <c r="H84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
+      <c r="A85" s="19">
         <v>102</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B85" s="19">
         <v>5</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="19">
         <v>23</v>
       </c>
-      <c r="D85" s="20">
-        <v>500</v>
-      </c>
-      <c r="E85" s="20">
-        <v>500</v>
-      </c>
-      <c r="F85" s="27">
-        <v>0</v>
-      </c>
-      <c r="G85" s="22">
-        <v>0</v>
-      </c>
-      <c r="H85" s="22">
+      <c r="D85" s="16">
+        <v>500</v>
+      </c>
+      <c r="E85" s="16">
+        <v>500</v>
+      </c>
+      <c r="F85" s="20">
+        <v>0</v>
+      </c>
+      <c r="G85" s="18">
+        <v>0</v>
+      </c>
+      <c r="H85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
+      <c r="A86" s="19">
         <v>103</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="19">
         <v>6</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="19">
         <v>24</v>
       </c>
-      <c r="D86" s="20">
-        <v>500</v>
-      </c>
-      <c r="E86" s="20">
-        <v>500</v>
-      </c>
-      <c r="F86" s="27">
-        <v>0</v>
-      </c>
-      <c r="G86" s="22">
-        <v>0</v>
-      </c>
-      <c r="H86" s="22">
+      <c r="D86" s="16">
+        <v>500</v>
+      </c>
+      <c r="E86" s="16">
+        <v>500</v>
+      </c>
+      <c r="F86" s="20">
+        <v>0</v>
+      </c>
+      <c r="G86" s="18">
+        <v>0</v>
+      </c>
+      <c r="H86" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="23">
+      <c r="A87" s="19">
         <v>104</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="19">
         <v>7</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="19">
         <v>25</v>
       </c>
-      <c r="D87" s="20">
-        <v>500</v>
-      </c>
-      <c r="E87" s="20">
-        <v>500</v>
-      </c>
-      <c r="F87" s="27">
-        <v>0</v>
-      </c>
-      <c r="G87" s="22">
-        <v>0</v>
-      </c>
-      <c r="H87" s="22">
+      <c r="D87" s="16">
+        <v>500</v>
+      </c>
+      <c r="E87" s="16">
+        <v>500</v>
+      </c>
+      <c r="F87" s="20">
+        <v>0</v>
+      </c>
+      <c r="G87" s="18">
+        <v>0</v>
+      </c>
+      <c r="H87" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
+      <c r="A88" s="19">
         <v>105</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="19">
         <v>8</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="19">
         <v>26</v>
       </c>
-      <c r="D88" s="20">
-        <v>500</v>
-      </c>
-      <c r="E88" s="20">
-        <v>500</v>
-      </c>
-      <c r="F88" s="27">
-        <v>0</v>
-      </c>
-      <c r="G88" s="22">
-        <v>0</v>
-      </c>
-      <c r="H88" s="22">
+      <c r="D88" s="16">
+        <v>500</v>
+      </c>
+      <c r="E88" s="16">
+        <v>500</v>
+      </c>
+      <c r="F88" s="20">
+        <v>0</v>
+      </c>
+      <c r="G88" s="18">
+        <v>0</v>
+      </c>
+      <c r="H88" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
+      <c r="A89" s="19">
         <v>106</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="19">
         <v>9</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="19">
         <v>27</v>
       </c>
-      <c r="D89" s="20">
-        <v>500</v>
-      </c>
-      <c r="E89" s="20">
-        <v>500</v>
-      </c>
-      <c r="F89" s="27">
-        <v>0</v>
-      </c>
-      <c r="G89" s="22">
-        <v>0</v>
-      </c>
-      <c r="H89" s="22">
+      <c r="D89" s="16">
+        <v>500</v>
+      </c>
+      <c r="E89" s="16">
+        <v>500</v>
+      </c>
+      <c r="F89" s="20">
+        <v>0</v>
+      </c>
+      <c r="G89" s="18">
+        <v>0</v>
+      </c>
+      <c r="H89" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
+      <c r="A90" s="19">
         <v>107</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="19">
         <v>10</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="19">
         <v>28</v>
       </c>
-      <c r="D90" s="20">
-        <v>500</v>
-      </c>
-      <c r="E90" s="20">
-        <v>500</v>
-      </c>
-      <c r="F90" s="27">
-        <v>0</v>
-      </c>
-      <c r="G90" s="22">
-        <v>0</v>
-      </c>
-      <c r="H90" s="22">
+      <c r="D90" s="16">
+        <v>500</v>
+      </c>
+      <c r="E90" s="16">
+        <v>500</v>
+      </c>
+      <c r="F90" s="20">
+        <v>0</v>
+      </c>
+      <c r="G90" s="18">
+        <v>0</v>
+      </c>
+      <c r="H90" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="23">
+      <c r="A91" s="19">
         <v>108</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="19">
         <v>11</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="19">
         <v>29</v>
       </c>
-      <c r="D91" s="20">
-        <v>500</v>
-      </c>
-      <c r="E91" s="20">
-        <v>500</v>
-      </c>
-      <c r="F91" s="27">
-        <v>0</v>
-      </c>
-      <c r="G91" s="22">
-        <v>0</v>
-      </c>
-      <c r="H91" s="22">
+      <c r="D91" s="16">
+        <v>500</v>
+      </c>
+      <c r="E91" s="16">
+        <v>500</v>
+      </c>
+      <c r="F91" s="20">
+        <v>0</v>
+      </c>
+      <c r="G91" s="18">
+        <v>0</v>
+      </c>
+      <c r="H91" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="23">
+      <c r="A92" s="19">
         <v>109</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="19">
         <v>12</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="19">
         <v>30</v>
       </c>
-      <c r="D92" s="20">
-        <v>500</v>
-      </c>
-      <c r="E92" s="20">
-        <v>500</v>
-      </c>
-      <c r="F92" s="27">
-        <v>0</v>
-      </c>
-      <c r="G92" s="22">
-        <v>0</v>
-      </c>
-      <c r="H92" s="22">
+      <c r="D92" s="16">
+        <v>500</v>
+      </c>
+      <c r="E92" s="16">
+        <v>500</v>
+      </c>
+      <c r="F92" s="20">
+        <v>0</v>
+      </c>
+      <c r="G92" s="18">
+        <v>0</v>
+      </c>
+      <c r="H92" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
+      <c r="A93" s="19">
         <v>111</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="19">
         <v>14</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="19">
         <v>32</v>
       </c>
-      <c r="D93" s="20">
-        <v>500</v>
-      </c>
-      <c r="E93" s="20">
-        <v>500</v>
-      </c>
-      <c r="F93" s="27">
-        <v>0</v>
-      </c>
-      <c r="G93" s="22">
-        <v>0</v>
-      </c>
-      <c r="H93" s="22">
+      <c r="D93" s="16">
+        <v>500</v>
+      </c>
+      <c r="E93" s="16">
+        <v>500</v>
+      </c>
+      <c r="F93" s="20">
+        <v>0</v>
+      </c>
+      <c r="G93" s="18">
+        <v>0</v>
+      </c>
+      <c r="H93" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
+      <c r="A94" s="19">
         <v>112</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="19">
         <v>15</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="19">
         <v>33</v>
       </c>
-      <c r="D94" s="20">
-        <v>500</v>
-      </c>
-      <c r="E94" s="20">
-        <v>500</v>
-      </c>
-      <c r="F94" s="27">
-        <v>0</v>
-      </c>
-      <c r="G94" s="22">
-        <v>0</v>
-      </c>
-      <c r="H94" s="22">
+      <c r="D94" s="16">
+        <v>500</v>
+      </c>
+      <c r="E94" s="16">
+        <v>500</v>
+      </c>
+      <c r="F94" s="20">
+        <v>0</v>
+      </c>
+      <c r="G94" s="18">
+        <v>0</v>
+      </c>
+      <c r="H94" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="23">
+      <c r="A95" s="19">
         <v>114</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="19">
         <v>17</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="19">
         <v>35</v>
       </c>
-      <c r="D95" s="20">
-        <v>500</v>
-      </c>
-      <c r="E95" s="20">
-        <v>500</v>
-      </c>
-      <c r="F95" s="27">
-        <v>0</v>
-      </c>
-      <c r="G95" s="22">
-        <v>0</v>
-      </c>
-      <c r="H95" s="22">
+      <c r="D95" s="16">
+        <v>500</v>
+      </c>
+      <c r="E95" s="16">
+        <v>500</v>
+      </c>
+      <c r="F95" s="20">
+        <v>0</v>
+      </c>
+      <c r="G95" s="18">
+        <v>0</v>
+      </c>
+      <c r="H95" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
+      <c r="A96" s="19">
         <v>115</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="19">
         <v>18</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="19">
         <v>36</v>
       </c>
-      <c r="D96" s="20">
-        <v>500</v>
-      </c>
-      <c r="E96" s="20">
-        <v>500</v>
-      </c>
-      <c r="F96" s="27">
-        <v>0</v>
-      </c>
-      <c r="G96" s="22">
-        <v>0</v>
-      </c>
-      <c r="H96" s="22">
+      <c r="D96" s="16">
+        <v>500</v>
+      </c>
+      <c r="E96" s="16">
+        <v>500</v>
+      </c>
+      <c r="F96" s="20">
+        <v>0</v>
+      </c>
+      <c r="G96" s="18">
+        <v>0</v>
+      </c>
+      <c r="H96" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="23">
+      <c r="A97" s="19">
         <v>116</v>
       </c>
-      <c r="B97" s="23">
+      <c r="B97" s="19">
         <v>22</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="19">
         <v>40</v>
       </c>
-      <c r="D97" s="20">
-        <v>500</v>
-      </c>
-      <c r="E97" s="20">
-        <v>500</v>
-      </c>
-      <c r="F97" s="27">
-        <v>0</v>
-      </c>
-      <c r="G97" s="22">
-        <v>0</v>
-      </c>
-      <c r="H97" s="22">
+      <c r="D97" s="16">
+        <v>500</v>
+      </c>
+      <c r="E97" s="16">
+        <v>500</v>
+      </c>
+      <c r="F97" s="20">
+        <v>0</v>
+      </c>
+      <c r="G97" s="18">
+        <v>0</v>
+      </c>
+      <c r="H97" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
+      <c r="A98" s="19">
         <v>117</v>
       </c>
-      <c r="B98" s="23">
+      <c r="B98" s="19">
         <v>23</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="19">
         <v>41</v>
       </c>
-      <c r="D98" s="20">
-        <v>500</v>
-      </c>
-      <c r="E98" s="20">
-        <v>500</v>
-      </c>
-      <c r="F98" s="27">
-        <v>0</v>
-      </c>
-      <c r="G98" s="22">
-        <v>0</v>
-      </c>
-      <c r="H98" s="22">
+      <c r="D98" s="16">
+        <v>500</v>
+      </c>
+      <c r="E98" s="16">
+        <v>500</v>
+      </c>
+      <c r="F98" s="20">
+        <v>0</v>
+      </c>
+      <c r="G98" s="18">
+        <v>0</v>
+      </c>
+      <c r="H98" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="23">
+      <c r="A99" s="19">
         <v>118</v>
       </c>
-      <c r="B99" s="23">
+      <c r="B99" s="19">
         <v>24</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="19">
         <v>42</v>
       </c>
-      <c r="D99" s="20">
-        <v>500</v>
-      </c>
-      <c r="E99" s="20">
-        <v>500</v>
-      </c>
-      <c r="F99" s="27">
-        <v>0</v>
-      </c>
-      <c r="G99" s="22">
-        <v>0</v>
-      </c>
-      <c r="H99" s="22">
+      <c r="D99" s="16">
+        <v>500</v>
+      </c>
+      <c r="E99" s="16">
+        <v>500</v>
+      </c>
+      <c r="F99" s="20">
+        <v>0</v>
+      </c>
+      <c r="G99" s="18">
+        <v>0</v>
+      </c>
+      <c r="H99" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="23">
+      <c r="A100" s="19">
         <v>119</v>
       </c>
-      <c r="B100" s="23">
+      <c r="B100" s="19">
         <v>25</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="19">
         <v>43</v>
       </c>
-      <c r="D100" s="20">
-        <v>500</v>
-      </c>
-      <c r="E100" s="20">
-        <v>500</v>
-      </c>
-      <c r="F100" s="27">
-        <v>0</v>
-      </c>
-      <c r="G100" s="22">
-        <v>0</v>
-      </c>
-      <c r="H100" s="22">
+      <c r="D100" s="16">
+        <v>500</v>
+      </c>
+      <c r="E100" s="16">
+        <v>500</v>
+      </c>
+      <c r="F100" s="20">
+        <v>0</v>
+      </c>
+      <c r="G100" s="18">
+        <v>0</v>
+      </c>
+      <c r="H100" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="23">
+      <c r="A101" s="19">
         <v>120</v>
       </c>
-      <c r="B101" s="23">
+      <c r="B101" s="19">
         <v>26</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="19">
         <v>44</v>
       </c>
-      <c r="D101" s="20">
-        <v>500</v>
-      </c>
-      <c r="E101" s="20">
-        <v>500</v>
-      </c>
-      <c r="F101" s="27">
-        <v>0</v>
-      </c>
-      <c r="G101" s="22">
-        <v>0</v>
-      </c>
-      <c r="H101" s="22">
+      <c r="D101" s="16">
+        <v>500</v>
+      </c>
+      <c r="E101" s="16">
+        <v>500</v>
+      </c>
+      <c r="F101" s="20">
+        <v>0</v>
+      </c>
+      <c r="G101" s="18">
+        <v>0</v>
+      </c>
+      <c r="H101" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="23">
+      <c r="A102" s="19">
         <v>121</v>
       </c>
-      <c r="B102" s="23">
+      <c r="B102" s="19">
         <v>27</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="19">
         <v>45</v>
       </c>
-      <c r="D102" s="20">
-        <v>500</v>
-      </c>
-      <c r="E102" s="20">
-        <v>500</v>
-      </c>
-      <c r="F102" s="27">
-        <v>0</v>
-      </c>
-      <c r="G102" s="22">
-        <v>0</v>
-      </c>
-      <c r="H102" s="22">
+      <c r="D102" s="16">
+        <v>500</v>
+      </c>
+      <c r="E102" s="16">
+        <v>500</v>
+      </c>
+      <c r="F102" s="20">
+        <v>0</v>
+      </c>
+      <c r="G102" s="18">
+        <v>0</v>
+      </c>
+      <c r="H102" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="23">
+      <c r="A103" s="19">
         <v>122</v>
       </c>
-      <c r="B103" s="23">
+      <c r="B103" s="19">
         <v>28</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="19">
         <v>46</v>
       </c>
-      <c r="D103" s="20">
-        <v>500</v>
-      </c>
-      <c r="E103" s="20">
-        <v>500</v>
-      </c>
-      <c r="F103" s="27">
-        <v>0</v>
-      </c>
-      <c r="G103" s="22">
-        <v>0</v>
-      </c>
-      <c r="H103" s="22">
+      <c r="D103" s="16">
+        <v>500</v>
+      </c>
+      <c r="E103" s="16">
+        <v>500</v>
+      </c>
+      <c r="F103" s="20">
+        <v>0</v>
+      </c>
+      <c r="G103" s="18">
+        <v>0</v>
+      </c>
+      <c r="H103" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="23">
+      <c r="A104" s="19">
         <v>123</v>
       </c>
-      <c r="B104" s="23">
+      <c r="B104" s="19">
         <v>29</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="19">
         <v>47</v>
       </c>
-      <c r="D104" s="20">
-        <v>500</v>
-      </c>
-      <c r="E104" s="20">
-        <v>500</v>
-      </c>
-      <c r="F104" s="27">
-        <v>0</v>
-      </c>
-      <c r="G104" s="22">
-        <v>0</v>
-      </c>
-      <c r="H104" s="22">
+      <c r="D104" s="16">
+        <v>500</v>
+      </c>
+      <c r="E104" s="16">
+        <v>500</v>
+      </c>
+      <c r="F104" s="20">
+        <v>0</v>
+      </c>
+      <c r="G104" s="18">
+        <v>0</v>
+      </c>
+      <c r="H104" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="23">
+      <c r="A105" s="19">
         <v>124</v>
       </c>
-      <c r="B105" s="23">
+      <c r="B105" s="19">
         <v>30</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="19">
         <v>48</v>
       </c>
-      <c r="D105" s="20">
-        <v>500</v>
-      </c>
-      <c r="E105" s="20">
-        <v>500</v>
-      </c>
-      <c r="F105" s="27">
-        <v>0</v>
-      </c>
-      <c r="G105" s="22">
-        <v>0</v>
-      </c>
-      <c r="H105" s="22">
+      <c r="D105" s="16">
+        <v>500</v>
+      </c>
+      <c r="E105" s="16">
+        <v>500</v>
+      </c>
+      <c r="F105" s="20">
+        <v>0</v>
+      </c>
+      <c r="G105" s="18">
+        <v>0</v>
+      </c>
+      <c r="H105" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="23">
+      <c r="A106" s="19">
         <v>126</v>
       </c>
-      <c r="B106" s="23">
+      <c r="B106" s="19">
         <v>32</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="19">
         <v>50</v>
       </c>
-      <c r="D106" s="20">
-        <v>500</v>
-      </c>
-      <c r="E106" s="20">
-        <v>500</v>
-      </c>
-      <c r="F106" s="27">
-        <v>0</v>
-      </c>
-      <c r="G106" s="22">
-        <v>0</v>
-      </c>
-      <c r="H106" s="22">
+      <c r="D106" s="16">
+        <v>500</v>
+      </c>
+      <c r="E106" s="16">
+        <v>500</v>
+      </c>
+      <c r="F106" s="20">
+        <v>0</v>
+      </c>
+      <c r="G106" s="18">
+        <v>0</v>
+      </c>
+      <c r="H106" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="23">
+      <c r="A107" s="19">
         <v>127</v>
       </c>
-      <c r="B107" s="23">
+      <c r="B107" s="19">
         <v>33</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="19">
         <v>51</v>
       </c>
-      <c r="D107" s="20">
-        <v>500</v>
-      </c>
-      <c r="E107" s="20">
-        <v>500</v>
-      </c>
-      <c r="F107" s="27">
-        <v>0</v>
-      </c>
-      <c r="G107" s="22">
-        <v>0</v>
-      </c>
-      <c r="H107" s="22">
+      <c r="D107" s="16">
+        <v>500</v>
+      </c>
+      <c r="E107" s="16">
+        <v>500</v>
+      </c>
+      <c r="F107" s="20">
+        <v>0</v>
+      </c>
+      <c r="G107" s="18">
+        <v>0</v>
+      </c>
+      <c r="H107" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="23">
+      <c r="A108" s="19">
         <v>129</v>
       </c>
-      <c r="B108" s="23">
+      <c r="B108" s="19">
         <v>35</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="19">
         <v>53</v>
       </c>
-      <c r="D108" s="20">
-        <v>500</v>
-      </c>
-      <c r="E108" s="20">
-        <v>500</v>
-      </c>
-      <c r="F108" s="27">
-        <v>0</v>
-      </c>
-      <c r="G108" s="22">
-        <v>0</v>
-      </c>
-      <c r="H108" s="22">
+      <c r="D108" s="16">
+        <v>500</v>
+      </c>
+      <c r="E108" s="16">
+        <v>500</v>
+      </c>
+      <c r="F108" s="20">
+        <v>0</v>
+      </c>
+      <c r="G108" s="18">
+        <v>0</v>
+      </c>
+      <c r="H108" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="23">
+      <c r="A109" s="19">
         <v>130</v>
       </c>
-      <c r="B109" s="23">
+      <c r="B109" s="19">
         <v>36</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="19">
         <v>54</v>
       </c>
-      <c r="D109" s="20">
-        <v>500</v>
-      </c>
-      <c r="E109" s="20">
-        <v>500</v>
-      </c>
-      <c r="F109" s="27">
-        <v>0</v>
-      </c>
-      <c r="G109" s="22">
-        <v>0</v>
-      </c>
-      <c r="H109" s="22">
+      <c r="D109" s="16">
+        <v>500</v>
+      </c>
+      <c r="E109" s="16">
+        <v>500</v>
+      </c>
+      <c r="F109" s="20">
+        <v>0</v>
+      </c>
+      <c r="G109" s="18">
+        <v>0</v>
+      </c>
+      <c r="H109" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="23">
+      <c r="A110" s="19">
         <v>131</v>
       </c>
-      <c r="B110" s="23">
+      <c r="B110" s="19">
         <v>40</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="19">
         <v>58</v>
       </c>
-      <c r="D110" s="20">
-        <v>500</v>
-      </c>
-      <c r="E110" s="20">
-        <v>500</v>
-      </c>
-      <c r="F110" s="27">
-        <v>0</v>
-      </c>
-      <c r="G110" s="22">
-        <v>0</v>
-      </c>
-      <c r="H110" s="22">
+      <c r="D110" s="16">
+        <v>500</v>
+      </c>
+      <c r="E110" s="16">
+        <v>500</v>
+      </c>
+      <c r="F110" s="20">
+        <v>0</v>
+      </c>
+      <c r="G110" s="18">
+        <v>0</v>
+      </c>
+      <c r="H110" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="23">
+      <c r="A111" s="19">
         <v>132</v>
       </c>
-      <c r="B111" s="23">
+      <c r="B111" s="19">
         <v>41</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="19">
         <v>59</v>
       </c>
-      <c r="D111" s="20">
-        <v>500</v>
-      </c>
-      <c r="E111" s="20">
-        <v>500</v>
-      </c>
-      <c r="F111" s="27">
-        <v>0</v>
-      </c>
-      <c r="G111" s="22">
-        <v>0</v>
-      </c>
-      <c r="H111" s="22">
+      <c r="D111" s="16">
+        <v>500</v>
+      </c>
+      <c r="E111" s="16">
+        <v>500</v>
+      </c>
+      <c r="F111" s="20">
+        <v>0</v>
+      </c>
+      <c r="G111" s="18">
+        <v>0</v>
+      </c>
+      <c r="H111" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="23">
+      <c r="A112" s="19">
         <v>133</v>
       </c>
-      <c r="B112" s="23">
+      <c r="B112" s="19">
         <v>42</v>
       </c>
-      <c r="C112" s="23">
+      <c r="C112" s="19">
         <v>60</v>
       </c>
-      <c r="D112" s="20">
-        <v>500</v>
-      </c>
-      <c r="E112" s="20">
-        <v>500</v>
-      </c>
-      <c r="F112" s="27">
-        <v>0</v>
-      </c>
-      <c r="G112" s="22">
-        <v>0</v>
-      </c>
-      <c r="H112" s="22">
+      <c r="D112" s="16">
+        <v>500</v>
+      </c>
+      <c r="E112" s="16">
+        <v>500</v>
+      </c>
+      <c r="F112" s="20">
+        <v>0</v>
+      </c>
+      <c r="G112" s="18">
+        <v>0</v>
+      </c>
+      <c r="H112" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="23">
+      <c r="A113" s="19">
         <v>134</v>
       </c>
-      <c r="B113" s="23">
+      <c r="B113" s="19">
         <v>43</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="19">
         <v>61</v>
       </c>
-      <c r="D113" s="20">
-        <v>500</v>
-      </c>
-      <c r="E113" s="20">
-        <v>500</v>
-      </c>
-      <c r="F113" s="27">
-        <v>0</v>
-      </c>
-      <c r="G113" s="22">
-        <v>0</v>
-      </c>
-      <c r="H113" s="22">
+      <c r="D113" s="16">
+        <v>500</v>
+      </c>
+      <c r="E113" s="16">
+        <v>500</v>
+      </c>
+      <c r="F113" s="20">
+        <v>0</v>
+      </c>
+      <c r="G113" s="18">
+        <v>0</v>
+      </c>
+      <c r="H113" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="23">
+      <c r="A114" s="19">
         <v>135</v>
       </c>
-      <c r="B114" s="23">
+      <c r="B114" s="19">
         <v>44</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="19">
         <v>62</v>
       </c>
-      <c r="D114" s="20">
-        <v>500</v>
-      </c>
-      <c r="E114" s="20">
-        <v>500</v>
-      </c>
-      <c r="F114" s="27">
-        <v>0</v>
-      </c>
-      <c r="G114" s="22">
-        <v>0</v>
-      </c>
-      <c r="H114" s="22">
+      <c r="D114" s="16">
+        <v>500</v>
+      </c>
+      <c r="E114" s="16">
+        <v>500</v>
+      </c>
+      <c r="F114" s="20">
+        <v>0</v>
+      </c>
+      <c r="G114" s="18">
+        <v>0</v>
+      </c>
+      <c r="H114" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="23">
+      <c r="A115" s="19">
         <v>136</v>
       </c>
-      <c r="B115" s="23">
+      <c r="B115" s="19">
         <v>45</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="19">
         <v>63</v>
       </c>
-      <c r="D115" s="20">
-        <v>500</v>
-      </c>
-      <c r="E115" s="20">
-        <v>500</v>
-      </c>
-      <c r="F115" s="27">
-        <v>0</v>
-      </c>
-      <c r="G115" s="22">
-        <v>0</v>
-      </c>
-      <c r="H115" s="22">
+      <c r="D115" s="16">
+        <v>500</v>
+      </c>
+      <c r="E115" s="16">
+        <v>500</v>
+      </c>
+      <c r="F115" s="20">
+        <v>0</v>
+      </c>
+      <c r="G115" s="18">
+        <v>0</v>
+      </c>
+      <c r="H115" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="23">
+      <c r="A116" s="19">
         <v>138</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B116" s="19">
         <v>47</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="19">
         <v>65</v>
       </c>
-      <c r="D116" s="20">
-        <v>500</v>
-      </c>
-      <c r="E116" s="20">
-        <v>500</v>
-      </c>
-      <c r="F116" s="27">
-        <v>0</v>
-      </c>
-      <c r="G116" s="22">
-        <v>0</v>
-      </c>
-      <c r="H116" s="22">
+      <c r="D116" s="16">
+        <v>500</v>
+      </c>
+      <c r="E116" s="16">
+        <v>500</v>
+      </c>
+      <c r="F116" s="20">
+        <v>0</v>
+      </c>
+      <c r="G116" s="18">
+        <v>0</v>
+      </c>
+      <c r="H116" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="23">
+      <c r="A117" s="19">
         <v>139</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="19">
         <v>48</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="19">
         <v>66</v>
       </c>
-      <c r="D117" s="20">
-        <v>500</v>
-      </c>
-      <c r="E117" s="20">
-        <v>500</v>
-      </c>
-      <c r="F117" s="27">
-        <v>0</v>
-      </c>
-      <c r="G117" s="22">
-        <v>0</v>
-      </c>
-      <c r="H117" s="22">
+      <c r="D117" s="16">
+        <v>500</v>
+      </c>
+      <c r="E117" s="16">
+        <v>500</v>
+      </c>
+      <c r="F117" s="20">
+        <v>0</v>
+      </c>
+      <c r="G117" s="18">
+        <v>0</v>
+      </c>
+      <c r="H117" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="23">
+      <c r="A118" s="19">
         <v>141</v>
       </c>
-      <c r="B118" s="23">
+      <c r="B118" s="19">
         <v>50</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="19">
         <v>68</v>
       </c>
-      <c r="D118" s="20">
-        <v>500</v>
-      </c>
-      <c r="E118" s="20">
-        <v>500</v>
-      </c>
-      <c r="F118" s="27">
-        <v>0</v>
-      </c>
-      <c r="G118" s="22">
-        <v>0</v>
-      </c>
-      <c r="H118" s="22">
+      <c r="D118" s="16">
+        <v>500</v>
+      </c>
+      <c r="E118" s="16">
+        <v>500</v>
+      </c>
+      <c r="F118" s="20">
+        <v>0</v>
+      </c>
+      <c r="G118" s="18">
+        <v>0</v>
+      </c>
+      <c r="H118" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="23">
+      <c r="A119" s="19">
         <v>142</v>
       </c>
-      <c r="B119" s="23">
+      <c r="B119" s="19">
         <v>51</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="19">
         <v>69</v>
       </c>
-      <c r="D119" s="20">
-        <v>500</v>
-      </c>
-      <c r="E119" s="20">
-        <v>500</v>
-      </c>
-      <c r="F119" s="27">
-        <v>0</v>
-      </c>
-      <c r="G119" s="22">
-        <v>0</v>
-      </c>
-      <c r="H119" s="22">
+      <c r="D119" s="16">
+        <v>500</v>
+      </c>
+      <c r="E119" s="16">
+        <v>500</v>
+      </c>
+      <c r="F119" s="20">
+        <v>0</v>
+      </c>
+      <c r="G119" s="18">
+        <v>0</v>
+      </c>
+      <c r="H119" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="23">
+      <c r="A120" s="19">
         <v>144</v>
       </c>
-      <c r="B120" s="23">
+      <c r="B120" s="19">
         <v>53</v>
       </c>
-      <c r="C120" s="23">
+      <c r="C120" s="19">
         <v>71</v>
       </c>
-      <c r="D120" s="20">
-        <v>500</v>
-      </c>
-      <c r="E120" s="20">
-        <v>500</v>
-      </c>
-      <c r="F120" s="27">
-        <v>0</v>
-      </c>
-      <c r="G120" s="22">
-        <v>0</v>
-      </c>
-      <c r="H120" s="22">
+      <c r="D120" s="16">
+        <v>500</v>
+      </c>
+      <c r="E120" s="16">
+        <v>500</v>
+      </c>
+      <c r="F120" s="20">
+        <v>0</v>
+      </c>
+      <c r="G120" s="18">
+        <v>0</v>
+      </c>
+      <c r="H120" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="23">
+      <c r="A121" s="19">
         <v>145</v>
       </c>
-      <c r="B121" s="23">
+      <c r="B121" s="19">
         <v>54</v>
       </c>
-      <c r="C121" s="23">
+      <c r="C121" s="19">
         <v>72</v>
       </c>
-      <c r="D121" s="20">
-        <v>500</v>
-      </c>
-      <c r="E121" s="20">
-        <v>500</v>
-      </c>
-      <c r="F121" s="27">
-        <v>0</v>
-      </c>
-      <c r="G121" s="22">
-        <v>0</v>
-      </c>
-      <c r="H121" s="22">
+      <c r="D121" s="16">
+        <v>500</v>
+      </c>
+      <c r="E121" s="16">
+        <v>500</v>
+      </c>
+      <c r="F121" s="20">
+        <v>0</v>
+      </c>
+      <c r="G121" s="18">
+        <v>0</v>
+      </c>
+      <c r="H121" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3926,24 +3928,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4396,436 +4398,436 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="12">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="7">
         <v>4</v>
       </c>
-      <c r="C35" s="12">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="7">
         <v>8</v>
       </c>
-      <c r="C36" s="12">
-        <v>0</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="12">
-        <v>0</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
         <v>3</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="7">
         <v>4</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="7">
         <v>3</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="7">
         <v>8</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="7">
         <v>3</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="12">
-        <v>0</v>
-      </c>
-      <c r="C40" s="12">
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
         <v>6</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="7">
         <v>4</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="7">
         <v>6</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="7">
         <v>8</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="7">
         <v>6</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="12">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
         <v>9</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="7">
         <v>4</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="7">
         <v>9</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="7">
         <v>8</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="7">
         <v>9</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="7">
         <v>50</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="7">
         <v>4</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="7">
         <v>12</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="A47" s="7">
         <v>51</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="7">
         <v>8</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="7">
         <v>12</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="7">
         <v>53</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="7">
         <v>4</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="7">
         <v>15</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="7">
         <v>54</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="7">
         <v>8</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="7">
         <v>15</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="7">
         <v>55</v>
       </c>
-      <c r="B50" s="12">
-        <v>0</v>
-      </c>
-      <c r="C50" s="12">
-        <v>0</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="7">
         <v>56</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="7">
         <v>4</v>
       </c>
-      <c r="C51" s="12">
-        <v>0</v>
-      </c>
-      <c r="D51" s="12">
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="7">
         <v>57</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="7">
         <v>8</v>
       </c>
-      <c r="C52" s="12">
-        <v>0</v>
-      </c>
-      <c r="D52" s="12">
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="A53" s="7">
         <v>58</v>
       </c>
-      <c r="B53" s="12">
-        <v>0</v>
-      </c>
-      <c r="C53" s="12">
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
         <v>3</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="7">
         <v>59</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="7">
         <v>4</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="7">
         <v>3</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="7">
         <v>60</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="7">
         <v>8</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="7">
         <v>3</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="7">
         <v>61</v>
       </c>
-      <c r="B56" s="12">
-        <v>0</v>
-      </c>
-      <c r="C56" s="12">
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
         <v>6</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+      <c r="A57" s="7">
         <v>62</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="7">
         <v>4</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="7">
         <v>6</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+      <c r="A58" s="7">
         <v>63</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="7">
         <v>8</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="7">
         <v>6</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="A59" s="7">
         <v>65</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="7">
         <v>4</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="7">
         <v>9</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="A60" s="7">
         <v>66</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="7">
         <v>8</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="7">
         <v>9</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="A61" s="7">
         <v>68</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="7">
         <v>4</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="7">
         <v>12</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
+      <c r="A62" s="7">
         <v>69</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="7">
         <v>8</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="7">
         <v>12</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="A63" s="7">
         <v>71</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="7">
         <v>4</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="7">
         <v>15</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="A64" s="7">
         <v>72</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="7">
         <v>8</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="7">
         <v>15</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="7">
         <v>12</v>
       </c>
     </row>
@@ -4840,316 +4842,317 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" style="23" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11" style="23" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0</v>
+      </c>
+      <c r="G2" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="24">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="24">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="24">
         <v>21</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="24">
         <v>37</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="24">
         <v>38</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="24">
         <v>39</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="25">
         <v>55</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="25">
         <v>56</v>
       </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="25">
         <v>57</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
         <v>0</v>
       </c>
     </row>
@@ -5163,244 +5166,245 @@
   <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="23" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="24">
         <v>1.5</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
         <v>1.2</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0</v>
+      </c>
+      <c r="G2" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="28"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="L11" s="2"/>
+      <c r="A11" s="28"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="A12" s="28"/>
+      <c r="M12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="N13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="A13" s="28"/>
+      <c r="N13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="R13" s="30"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="A14" s="28"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="A15" s="28"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="M16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="R17" s="30"/>
     </row>
     <row r="18" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="S18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="S18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
     </row>
     <row r="19" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="T19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="X19" s="2"/>
+      <c r="T19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="X19" s="30"/>
     </row>
     <row r="20" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
     </row>
     <row r="21" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
     </row>
     <row r="22" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="S22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="S22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="W22" s="30"/>
     </row>
     <row r="23" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="X23" s="2"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="X23" s="30"/>
     </row>
     <row r="24" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="Y24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
+      <c r="Y24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="Z25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AD25" s="2"/>
+      <c r="Z25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AD25" s="30"/>
     </row>
     <row r="26" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
     </row>
     <row r="27" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
     </row>
     <row r="28" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="Y28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AC28" s="2"/>
+      <c r="Y28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AC28" s="30"/>
     </row>
     <row r="29" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AD29" s="2"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AD29" s="30"/>
     </row>
     <row r="30" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="AE30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
+      <c r="AE30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
     </row>
     <row r="31" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="AF31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AJ31" s="2"/>
+      <c r="AF31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AJ31" s="30"/>
     </row>
     <row r="32" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
     </row>
     <row r="33" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
     </row>
     <row r="34" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AI34" s="2"/>
+      <c r="AE34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AI34" s="30"/>
     </row>
     <row r="35" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AJ35" s="2"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AJ35" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5413,78 +5417,81 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="23"/>
+    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="17.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" s="33" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="24">
         <v>0.16</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="24">
         <v>1.5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="24">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
         <v>5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="24">
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5495,88 +5502,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FFFFD-D3EF-4C34-BF62-CD846C871C27}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="10.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="14.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="14.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>35</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>40</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>54086130</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0.4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0.05</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>99903474.358974397</v>
       </c>
     </row>
